--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\stockmanagement_ui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\UiPathProjects\InventoryAlert_UiPath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B547C3C2-B70B-4E4B-83E2-FF3421E29DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DD9908-3DF4-43D9-9EBB-34F2A43F7E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3110" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -503,59 +503,79 @@
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
+        <v>250</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
         <v>15</v>
       </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>250</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
@@ -563,18 +583,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
@@ -585,16 +605,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -605,16 +625,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -623,18 +643,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -643,18 +663,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -665,16 +685,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
         <v>22</v>
       </c>
-      <c r="C10" s="2">
-        <v>12</v>
-      </c>
       <c r="D10" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -685,57 +705,37 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2">
-        <v>100</v>
-      </c>
-      <c r="D12" s="2">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{DD07FA46-39AB-497A-9449-CE596EFF18F0}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{B85F5E96-B150-4057-8574-4F0CFAB90937}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{D0860A9C-40D4-4F8C-BCF7-C8E879704BC1}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{26A91F66-7686-443C-B933-A2070E93C3EE}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{9AA756DC-C190-4BD5-BA6C-B8E78AEB2FC0}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{D83B3A37-F359-498D-AD4E-188D9404E4F2}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{9A266278-7333-4308-BA7B-008CE076D104}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{ECD6D1D8-4C0F-4B0F-8E34-45E10CE9BB0E}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{574678DC-9486-4CC1-8F31-5FE1646085A4}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{2DAFFBBF-385D-4B4F-9142-78B5BF423F3A}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{DD07FA46-39AB-497A-9449-CE596EFF18F0}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B85F5E96-B150-4057-8574-4F0CFAB90937}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{D0860A9C-40D4-4F8C-BCF7-C8E879704BC1}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{26A91F66-7686-443C-B933-A2070E93C3EE}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{9AA756DC-C190-4BD5-BA6C-B8E78AEB2FC0}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{D83B3A37-F359-498D-AD4E-188D9404E4F2}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{9A266278-7333-4308-BA7B-008CE076D104}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{ECD6D1D8-4C0F-4B0F-8E34-45E10CE9BB0E}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{574678DC-9486-4CC1-8F31-5FE1646085A4}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{2DAFFBBF-385D-4B4F-9142-78B5BF423F3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\UiPathProjects\InventoryAlert_UiPath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DD9908-3DF4-43D9-9EBB-34F2A43F7E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE53CB1-2504-44F1-B1E5-BBC9656AF7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -611,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>80</v>
